--- a/training/admin/2024 DSGE Training.xlsx
+++ b/training/admin/2024 DSGE Training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uctcloud-my.sharepoint.com/personal/01463691_wf_uct_ac_za/Documents/GitHub/dsge-training/training/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{6B362E4A-B22F-3544-B79E-469D58857A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D166355-1C41-9E41-B4DC-4918E0BD7171}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{6B362E4A-B22F-3544-B79E-469D58857A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{166A8CB7-93CF-1149-87BD-0AD42F9A49F0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
-  <si>
-    <t>TIMETABLE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>MONDAY</t>
   </si>
@@ -56,6 +53,30 @@
   <si>
     <t>Session</t>
   </si>
+  <si>
+    <t>TIMETABLE - DSGE Training course - Pretoria</t>
+  </si>
+  <si>
+    <t>Date: 03 - 07 December</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Practical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facilitator: Richard Kima </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prep </t>
+  </si>
+  <si>
+    <t>Facilitator: Hylton Hollander</t>
+  </si>
+  <si>
+    <t>Link to google sheet: https://docs.google.com/spreadsheets/d/13zqYkf0Z0ncbDcjvZigb51Z2zR6nLJpCXLYeAWW-1cs/edit?usp=sharing</t>
+  </si>
 </sst>
 </file>
 
@@ -68,7 +89,7 @@
     <numFmt numFmtId="167" formatCode="mmmm&quot; &quot;d"/>
     <numFmt numFmtId="168" formatCode="m&quot;/&quot;d"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -129,25 +150,6 @@
     <font>
       <i/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF555555"/>
       <name val="Roboto"/>
     </font>
     <font>
@@ -161,12 +163,6 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Roboto"/>
     </font>
@@ -288,7 +284,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,20 +311,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9FC5E8"/>
-        <bgColor rgb="FF9FC5E8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEA9999"/>
-        <bgColor rgb="FFEA9999"/>
       </patternFill>
     </fill>
     <fill>
@@ -345,18 +329,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFF9900"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -386,17 +370,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF004D40"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF004D40"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -523,54 +496,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF3F3F3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFF3F3F3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -674,145 +599,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF3F3F3"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="18" fontId="9" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -821,132 +745,151 @@
     <xf numFmtId="18" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="9" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="18" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="18" fontId="9" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1375,10 +1318,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B25" sqref="B25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1392,39 +1335,42 @@
     <col min="8" max="8" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27">
+    <row r="1" spans="1:9" ht="27">
       <c r="A1" s="1"/>
-      <c r="B1" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="14">
+      <c r="B1" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="109"/>
+    </row>
+    <row r="2" spans="1:9" ht="14">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="22.5" customHeight="1">
+    <row r="3" spans="1:9" ht="22.5" customHeight="1">
       <c r="A3" s="9"/>
       <c r="B3" s="10">
         <v>0.33333333333333331</v>
@@ -1436,7 +1382,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" ht="22.5" customHeight="1">
+    <row r="4" spans="1:9" ht="22.5" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
@@ -1446,325 +1392,375 @@
       <c r="G4" s="14"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" ht="22.5" customHeight="1">
+    <row r="5" spans="1:9" ht="22.5" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="10">
         <v>0.375</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="11"/>
+      <c r="C5" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="104" t="s">
+        <v>9</v>
+      </c>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" ht="22.5" customHeight="1">
+    <row r="6" spans="1:9" ht="22.5" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="C6" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="105" t="s">
+        <v>16</v>
+      </c>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" ht="22.5" customHeight="1">
+    <row r="7" spans="1:9" ht="22.5" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="11"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" ht="22.5" customHeight="1">
+    <row r="8" spans="1:9" ht="22.5" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="20"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="22.5" customHeight="1">
+    <row r="9" spans="1:9" ht="22.5" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="10">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="26"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="22.5" customHeight="1">
+    <row r="10" spans="1:9" ht="22.5" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="29"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="22.5" customHeight="1">
+    <row r="11" spans="1:9" ht="22.5" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="10">
         <v>0.5</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="31"/>
+      <c r="C11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="22.5" customHeight="1">
+    <row r="12" spans="1:9" ht="22.5" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="33"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" ht="22.5" customHeight="1">
+    <row r="13" spans="1:9" ht="22.5" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="10">
+      <c r="B13" s="53">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="C13" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="113" t="s">
+        <v>12</v>
+      </c>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="22.5" customHeight="1">
+    <row r="14" spans="1:9" ht="22.5" customHeight="1">
       <c r="A14" s="9"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="16"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="22.5" customHeight="1">
+    <row r="15" spans="1:9" ht="22.5" customHeight="1">
       <c r="A15" s="9"/>
-      <c r="B15" s="10">
+      <c r="B15" s="53">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="11"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
       <c r="G15" s="11"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" ht="22.5" customHeight="1">
+    <row r="16" spans="1:9" ht="22.5" customHeight="1">
       <c r="A16" s="9"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" ht="22.5" customHeight="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="10">
+      <c r="B17" s="53">
         <v>0.625</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="11"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
       <c r="G17" s="11"/>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" ht="22.5" customHeight="1">
       <c r="A18" s="9"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="38"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1">
       <c r="A19" s="9"/>
-      <c r="B19" s="10">
+      <c r="B19" s="53">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="40"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
       <c r="G19" s="11"/>
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A20" s="41"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="11"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A21" s="41"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="10">
         <v>0.75</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="45"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A22" s="41"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A23" s="51"/>
-      <c r="B23" s="52" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="51"/>
+      <c r="H23" s="24"/>
     </row>
     <row r="24" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A24" s="54"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="54"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="25" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A25" s="54"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="54"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A26" s="54"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="54"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="27"/>
     </row>
     <row r="27" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A27" s="54"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="54"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A28" s="54"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="54"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A29" s="54"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="54"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="27"/>
     </row>
     <row r="30" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A30" s="54"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A31" s="54"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
     </row>
     <row r="32" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A32" s="54"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:8" ht="6" customHeight="1">
-      <c r="A33" s="64"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1800,196 +1796,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="A1" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="D3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="E3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="F3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="69" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="70">
+      <c r="A4" s="43">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="72"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="74"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="79"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="80">
+      <c r="A6" s="53">
         <v>0.375</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="84"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="85"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="89"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="80">
+      <c r="A8" s="53">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92"/>
-      <c r="F8" s="93"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
+      <c r="F8" s="66"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="85"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="77"/>
-      <c r="F9" s="93"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="50"/>
+      <c r="F9" s="66"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="80">
+      <c r="A10" s="53">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="97"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="85"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="99"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="72"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="80">
+      <c r="A12" s="53">
         <v>0.5</v>
       </c>
-      <c r="B12" s="100"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="82"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="55"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="85"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="32"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="70">
+      <c r="A14" s="43">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="107"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="80"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A15" s="74"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="103"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="76"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="70">
+      <c r="A16" s="43">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="106"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="79"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="74"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="110"/>
+      <c r="A17" s="47"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="83"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="70">
+      <c r="A18" s="43">
         <v>0.625</v>
       </c>
-      <c r="B18" s="113"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A19" s="74"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A20" s="70">
+      <c r="A20" s="43">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A23" s="119"/>
+      <c r="A23" s="92"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A27" s="119"/>
+      <c r="A27" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/training/admin/2024 DSGE Training.xlsx
+++ b/training/admin/2024 DSGE Training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uctcloud-my.sharepoint.com/personal/01463691_wf_uct_ac_za/Documents/GitHub/dsge-training/training/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{6B362E4A-B22F-3544-B79E-469D58857A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{166A8CB7-93CF-1149-87BD-0AD42F9A49F0}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{6B362E4A-B22F-3544-B79E-469D58857A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6ABA391A-82E1-8049-94E5-023EFB1DA807}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
   <si>
     <t>MONDAY</t>
   </si>
@@ -75,7 +75,10 @@
     <t>Facilitator: Hylton Hollander</t>
   </si>
   <si>
-    <t>Link to google sheet: https://docs.google.com/spreadsheets/d/13zqYkf0Z0ncbDcjvZigb51Z2zR6nLJpCXLYeAWW-1cs/edit?usp=sharing</t>
+    <t xml:space="preserve">Link to google sheet: </t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/13zqYkf0Z0ncbDcjvZigb51Z2zR6nLJpCXLYeAWW-1cs/edit?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -89,7 +92,7 @@
     <numFmt numFmtId="167" formatCode="mmmm&quot; &quot;d"/>
     <numFmt numFmtId="168" formatCode="m&quot;/&quot;d"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -282,6 +285,13 @@
       <sz val="10"/>
       <color rgb="FF999999"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -650,10 +660,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -890,8 +901,12 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -1321,7 +1336,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:E25"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1674,7 +1689,9 @@
     </row>
     <row r="25" spans="1:8" ht="22.5" customHeight="1">
       <c r="A25" s="27"/>
-      <c r="B25" s="95"/>
+      <c r="B25" s="114" t="s">
+        <v>18</v>
+      </c>
       <c r="C25" s="96"/>
       <c r="D25" s="96"/>
       <c r="E25" s="96"/>
@@ -1772,11 +1789,14 @@
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E27"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B25" r:id="rId1" xr:uid="{C54AA260-8F0B-EF47-81F6-F6A69CE58613}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
